--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB/Template.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Source\dcom\bin\Debug\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Source\dcom\bin\Debug\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAEB538-FE4F-4F53-BC55-F4092B106ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA508044-B3B9-4C6D-A3FF-BE93B3E1750B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15255" yWindow="3420" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="85">
   <si>
     <t>Sub_function</t>
   </si>
@@ -287,6 +287,18 @@
   </si>
   <si>
     <t>Private CAN DBC</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>RC</t>
   </si>
 </sst>
 </file>
@@ -683,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -881,6 +893,9 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10418,21 +10433,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="2"/>
+    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -10446,7 +10461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -10457,28 +10472,28 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -10488,61 +10503,61 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="9"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="9"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>70</v>
       </c>
@@ -10552,29 +10567,37 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="104" t="s">
+        <v>81</v>
+      </c>
       <c r="B31" s="8"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="104" t="s">
+        <v>82</v>
+      </c>
       <c r="B32" s="9"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="104" t="s">
+        <v>83</v>
+      </c>
       <c r="B33" s="9"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="104" t="s">
+        <v>84</v>
+      </c>
       <c r="B34" s="9"/>
     </row>
-    <row r="40" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>69</v>
       </c>
@@ -10582,37 +10605,37 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B43" s="9"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="9"/>
     </row>
-    <row r="50" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>71</v>
       </c>
@@ -10620,73 +10643,73 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="8"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="8"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B56" s="8"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B57" s="8"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B58" s="8"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B59" s="8"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="8"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B61" s="8"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>78</v>
       </c>
@@ -10712,65 +10735,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -10846,7 +10869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -10906,7 +10929,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -10942,7 +10965,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -10976,7 +10999,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -11012,7 +11035,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -11050,7 +11073,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -11090,7 +11113,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -11132,7 +11155,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -11176,7 +11199,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -11222,7 +11245,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -11270,7 +11293,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -11320,7 +11343,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -11372,7 +11395,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -11426,7 +11449,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -11482,7 +11505,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -11510,7 +11533,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -11521,7 +11544,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -11532,7 +11555,7 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -11542,7 +11565,7 @@
       <c r="H20" s="37"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -11552,7 +11575,7 @@
       <c r="H21" s="37"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -11562,7 +11585,7 @@
       <c r="H22" s="37"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -11572,45 +11595,45 @@
       <c r="H23" s="37"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -11618,7 +11641,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -11629,7 +11652,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -11640,7 +11663,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -11651,7 +11674,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -11662,7 +11685,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -11670,7 +11693,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -11711,65 +11734,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="42" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
       <c r="D1" s="95"/>
       <c r="E1" s="64"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105" t="s">
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
       <c r="Y1" s="65"/>
       <c r="Z1" s="65"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
@@ -11845,7 +11868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -11905,7 +11928,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -11941,7 +11964,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -11975,7 +11998,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -12011,7 +12034,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -12049,7 +12072,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="68"/>
       <c r="C8" s="21"/>
@@ -12089,7 +12112,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -12131,7 +12154,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -12175,7 +12198,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -12221,7 +12244,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -12269,7 +12292,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -12319,7 +12342,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -12371,7 +12394,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -12425,7 +12448,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="69"/>
@@ -12481,7 +12504,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -12509,7 +12532,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -12536,7 +12559,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -12563,69 +12586,69 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
       <c r="I34" s="70"/>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
       <c r="I37" s="100"/>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
       <c r="I38" s="100"/>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -12633,7 +12656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -12644,7 +12667,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -12655,7 +12678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -12666,7 +12689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -12677,7 +12700,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -12685,7 +12708,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="99"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -12726,65 +12749,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -12860,7 +12883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -12920,7 +12943,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -12956,7 +12979,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -12990,7 +13013,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -13026,7 +13049,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -13064,7 +13087,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -13104,7 +13127,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -13146,7 +13169,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -13190,7 +13213,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -13236,7 +13259,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -13284,7 +13307,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -13334,7 +13357,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -13386,7 +13409,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -13440,7 +13463,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -13496,7 +13519,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -13524,7 +13547,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -13551,7 +13574,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -13578,60 +13601,60 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -13639,7 +13662,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -13650,7 +13673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -13661,7 +13684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -13672,7 +13695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -13683,7 +13706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -13691,7 +13714,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -13732,65 +13755,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -13866,7 +13889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -13926,7 +13949,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -13962,7 +13985,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -13996,7 +14019,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
@@ -14032,7 +14055,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
@@ -14070,7 +14093,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
@@ -14110,7 +14133,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -14152,7 +14175,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -14196,7 +14219,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -14242,7 +14265,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -14290,7 +14313,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -14340,7 +14363,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -14392,7 +14415,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -14446,7 +14469,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -14502,7 +14525,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -14530,7 +14553,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -14541,7 +14564,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -14552,60 +14575,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -14613,7 +14636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -14624,7 +14647,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -14635,7 +14658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -14646,7 +14669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -14657,7 +14680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -14665,7 +14688,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -14703,7 +14726,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14715,71 +14738,71 @@
   <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+      <selection activeCell="G3" sqref="G3:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -14855,7 +14878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -14915,7 +14938,7 @@
       </c>
       <c r="Z3" s="56"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="53"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -14975,7 +14998,7 @@
       </c>
       <c r="Z4" s="58"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="53"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -15035,7 +15058,7 @@
       </c>
       <c r="Z5" s="58"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="53"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -15095,7 +15118,7 @@
       </c>
       <c r="Z6" s="58"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="53"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -15155,7 +15178,7 @@
       </c>
       <c r="Z7" s="58"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="53"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -15213,7 +15236,7 @@
       </c>
       <c r="Z8" s="58"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -15271,7 +15294,7 @@
       </c>
       <c r="Z9" s="58"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="53"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -15329,7 +15352,7 @@
       </c>
       <c r="Z10" s="58"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="53"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -15387,7 +15410,7 @@
       </c>
       <c r="Z11" s="58"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -15445,7 +15468,7 @@
       </c>
       <c r="Z12" s="58"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="25"/>
@@ -15503,7 +15526,7 @@
       </c>
       <c r="Z13" s="58"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="53"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -15561,7 +15584,7 @@
       </c>
       <c r="Z14" s="58"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="53"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -15619,7 +15642,7 @@
       </c>
       <c r="Z15" s="58"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="53"/>
       <c r="B16" s="25"/>
       <c r="C16" s="60"/>
@@ -15677,7 +15700,7 @@
       </c>
       <c r="Z16" s="58"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="60"/>
       <c r="B17" s="60"/>
       <c r="C17" s="62"/>
@@ -15704,11 +15727,11 @@
       <c r="Y17" s="63"/>
       <c r="Z17" s="58"/>
     </row>
-    <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -15716,7 +15739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -15727,7 +15750,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -15738,16 +15761,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="47"/>
+      <c r="B103" s="47" t="s">
+        <v>26</v>
+      </c>
       <c r="C103" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -15758,7 +15783,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -15766,7 +15791,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -15804,68 +15829,68 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
     <col min="4" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -15941,7 +15966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -16001,7 +16026,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -16063,7 +16088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -16123,7 +16148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -16183,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -16243,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -16303,7 +16328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -16363,7 +16388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -16423,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -16483,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -16543,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -16603,7 +16628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -16663,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -16723,7 +16748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -16783,7 +16808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -16811,12 +16836,12 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I25" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -16824,7 +16849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -16835,7 +16860,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -16846,16 +16871,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="47"/>
+      <c r="B103" s="47" t="s">
+        <v>26</v>
+      </c>
       <c r="C103" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -16866,7 +16893,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -16874,7 +16901,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -16912,68 +16939,68 @@
   <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I4"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -17049,7 +17076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -17109,7 +17136,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -17145,7 +17172,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -17179,7 +17206,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -17215,7 +17242,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -17253,7 +17280,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -17293,7 +17320,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -17335,7 +17362,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -17379,7 +17406,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -17425,7 +17452,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -17473,7 +17500,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -17523,7 +17550,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -17575,7 +17602,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -17629,7 +17656,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -17685,7 +17712,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -17713,10 +17740,10 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -17724,7 +17751,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -17735,7 +17762,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -17746,18 +17773,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="47">
-        <v>1</v>
+      <c r="B103" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -17768,7 +17795,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -17776,7 +17803,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -17813,69 +17840,69 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -17951,7 +17978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -18011,7 +18038,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -18047,7 +18074,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -18081,7 +18108,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -18117,7 +18144,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -18155,7 +18182,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -18195,7 +18222,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -18237,7 +18264,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -18281,7 +18308,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -18327,7 +18354,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -18375,7 +18402,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -18425,7 +18452,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -18477,7 +18504,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -18531,7 +18558,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -18587,7 +18614,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -18615,7 +18642,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -18626,7 +18653,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -18637,60 +18664,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -18698,7 +18725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -18709,7 +18736,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -18720,7 +18747,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -18731,7 +18758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -18742,7 +18769,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -18750,7 +18777,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -18791,65 +18818,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" style="76" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="76" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="76" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="76" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="76" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="76" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="76" customWidth="1"/>
     <col min="5" max="5" width="9" style="76" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="76" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="76" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="76" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="76" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="76" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="76" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="76" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="76" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="76" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="76" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="76" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="76" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="76" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="76" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="76"/>
+    <col min="6" max="6" width="17.7109375" style="76" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="76" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="76" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="76" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="76" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="76" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="76" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="76" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="76" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="76" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="76" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="76" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="76" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="76" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="73"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="74"/>
       <c r="Z1" s="75"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
         <v>64</v>
       </c>
@@ -18925,7 +18952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="79"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -18985,7 +19012,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="80"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -19021,7 +19048,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="80"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -19055,7 +19082,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="80"/>
       <c r="B6" s="38"/>
       <c r="C6" s="21"/>
@@ -19091,7 +19118,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="80"/>
       <c r="B7" s="38"/>
       <c r="C7" s="21"/>
@@ -19129,7 +19156,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="80"/>
       <c r="B8" s="38"/>
       <c r="C8" s="21"/>
@@ -19169,7 +19196,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="80"/>
       <c r="B9" s="38"/>
       <c r="C9" s="21"/>
@@ -19211,7 +19238,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="80"/>
       <c r="B10" s="38"/>
       <c r="C10" s="21"/>
@@ -19255,7 +19282,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="80"/>
       <c r="B11" s="38"/>
       <c r="C11" s="21"/>
@@ -19301,7 +19328,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="80"/>
       <c r="B12" s="38"/>
       <c r="C12" s="21"/>
@@ -19349,7 +19376,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="80"/>
       <c r="B13" s="38"/>
       <c r="C13" s="21"/>
@@ -19399,7 +19426,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="80"/>
       <c r="B14" s="38"/>
       <c r="C14" s="21"/>
@@ -19451,7 +19478,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="80"/>
       <c r="B15" s="38"/>
       <c r="C15" s="21"/>
@@ -19505,7 +19532,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="80"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
@@ -19561,7 +19588,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="80"/>
       <c r="B17" s="38"/>
       <c r="C17" s="39"/>
@@ -19589,7 +19616,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="80"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
@@ -19600,7 +19627,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="80"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
@@ -19611,214 +19638,214 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="80"/>
       <c r="B20" s="20"/>
       <c r="C20" s="37"/>
       <c r="D20" s="52"/>
     </row>
-    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="80"/>
       <c r="B21" s="20"/>
       <c r="C21" s="37"/>
       <c r="D21" s="52"/>
     </row>
-    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="80"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="52"/>
     </row>
-    <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="80"/>
       <c r="B23" s="20"/>
       <c r="C23" s="37"/>
       <c r="D23" s="52"/>
     </row>
-    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="80"/>
       <c r="B24" s="20"/>
       <c r="C24" s="37"/>
       <c r="D24" s="52"/>
     </row>
-    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="80"/>
       <c r="B25" s="20"/>
       <c r="C25" s="37"/>
       <c r="D25" s="52"/>
     </row>
-    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="80"/>
       <c r="B26" s="20"/>
       <c r="C26" s="37"/>
       <c r="D26" s="52"/>
     </row>
-    <row r="27" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="82"/>
       <c r="B27" s="36"/>
       <c r="C27" s="37"/>
       <c r="D27" s="52"/>
     </row>
-    <row r="28" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="80"/>
       <c r="B28" s="20"/>
       <c r="C28" s="37"/>
       <c r="D28" s="52"/>
     </row>
-    <row r="29" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="80"/>
       <c r="B29" s="20"/>
       <c r="C29" s="37"/>
       <c r="D29" s="52"/>
     </row>
-    <row r="30" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="80"/>
       <c r="B30" s="20"/>
       <c r="C30" s="37"/>
       <c r="D30" s="52"/>
     </row>
-    <row r="31" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="83"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="52"/>
     </row>
-    <row r="32" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="83"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="52"/>
     </row>
-    <row r="33" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="83"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="52"/>
     </row>
-    <row r="34" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="94"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="52"/>
     </row>
-    <row r="35" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="94"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="52"/>
     </row>
-    <row r="36" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="94"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="52"/>
     </row>
-    <row r="37" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="94"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="52"/>
     </row>
-    <row r="38" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="94"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="52"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="52"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="40"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="40"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="40"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="40"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="40"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="40"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="40"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="40"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="40"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="40"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="40"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="38"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="40"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="40"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
       <c r="D53" s="84"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E64" s="93"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="85" t="s">
         <v>48</v>
       </c>
@@ -19826,7 +19853,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="87" t="s">
         <v>56</v>
       </c>
@@ -19837,7 +19864,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="88" t="s">
         <v>57</v>
       </c>
@@ -19848,7 +19875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="88" t="s">
         <v>58</v>
       </c>
@@ -19859,7 +19886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="90" t="s">
         <v>59</v>
       </c>
@@ -19870,7 +19897,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="92" t="s">
         <v>49</v>
       </c>
@@ -19878,7 +19905,7 @@
       <c r="C110" s="92"/>
       <c r="D110" s="92"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="76" t="s">
         <v>7</v>
       </c>
@@ -19919,65 +19946,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -20053,7 +20080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -20113,7 +20140,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -20149,7 +20176,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -20183,7 +20210,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
@@ -20219,7 +20246,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
@@ -20257,7 +20284,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
@@ -20297,7 +20324,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
@@ -20339,7 +20366,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
@@ -20383,7 +20410,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -20429,7 +20456,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -20477,7 +20504,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -20527,7 +20554,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -20579,7 +20606,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -20633,7 +20660,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -20689,7 +20716,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -20717,7 +20744,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -20728,7 +20755,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -20739,70 +20766,70 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="D20" s="42"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="42"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="D22" s="42"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
       <c r="D23" s="42"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="42"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="42"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="42"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="42"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="42"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
       <c r="D29" s="42"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -20810,7 +20837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -20821,7 +20848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -20832,7 +20859,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -20843,7 +20870,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -20854,7 +20881,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -20862,7 +20889,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -20903,65 +20930,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -21037,7 +21064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -21097,7 +21124,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -21133,7 +21160,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -21167,7 +21194,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -21203,7 +21230,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -21241,7 +21268,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -21281,7 +21308,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -21323,7 +21350,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -21367,7 +21394,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -21413,7 +21440,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -21461,7 +21488,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -21511,7 +21538,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -21563,7 +21590,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -21617,7 +21644,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -21673,7 +21700,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -21701,7 +21728,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -21712,7 +21739,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -21723,60 +21750,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -21784,7 +21811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -21795,7 +21822,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -21806,7 +21833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -21817,7 +21844,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -21828,7 +21855,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -21836,7 +21863,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -21877,65 +21904,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -22011,7 +22038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -22071,7 +22098,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -22107,7 +22134,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -22141,7 +22168,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -22177,7 +22204,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -22215,7 +22242,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -22255,7 +22282,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -22297,7 +22324,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -22341,7 +22368,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -22387,7 +22414,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -22435,7 +22462,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -22485,7 +22512,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -22537,7 +22564,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -22591,7 +22618,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -22647,7 +22674,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -22675,7 +22702,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -22702,7 +22729,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -22729,60 +22756,60 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -22790,7 +22817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -22801,7 +22828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -22812,7 +22839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -22823,7 +22850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -22834,7 +22861,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -22842,7 +22869,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB/Template.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Source\dcom\bin\Debug\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA508044-B3B9-4C6D-A3FF-BE93B3E1750B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F909EF-2034-4F48-AD9E-D35935A91CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15255" yWindow="3420" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14160" yWindow="3495" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="85">
   <si>
     <t>Sub_function</t>
   </si>
@@ -14737,8 +14737,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I7"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14954,9 +14954,7 @@
       <c r="K4" s="57">
         <v>1</v>
       </c>
-      <c r="L4" s="55" t="s">
-        <v>15</v>
-      </c>
+      <c r="L4" s="55"/>
       <c r="M4" s="101" t="s">
         <v>46</v>
       </c>
@@ -15014,9 +15012,7 @@
       <c r="K5" s="57">
         <v>2</v>
       </c>
-      <c r="L5" s="55" t="s">
-        <v>3</v>
-      </c>
+      <c r="L5" s="55"/>
       <c r="M5" s="102" t="s">
         <v>46</v>
       </c>
@@ -15074,9 +15070,7 @@
       <c r="K6" s="57">
         <v>3</v>
       </c>
-      <c r="L6" s="55" t="s">
-        <v>4</v>
-      </c>
+      <c r="L6" s="55"/>
       <c r="M6" s="102" t="s">
         <v>46</v>
       </c>
@@ -15134,9 +15128,7 @@
       <c r="K7" s="57">
         <v>4</v>
       </c>
-      <c r="L7" s="55" t="s">
-        <v>16</v>
-      </c>
+      <c r="L7" s="55"/>
       <c r="M7" s="102" t="s">
         <v>46</v>
       </c>
@@ -15192,9 +15184,7 @@
       <c r="K8" s="57">
         <v>5</v>
       </c>
-      <c r="L8" s="55" t="s">
-        <v>17</v>
-      </c>
+      <c r="L8" s="55"/>
       <c r="M8" s="102" t="s">
         <v>46</v>
       </c>
@@ -15250,9 +15240,7 @@
       <c r="K9" s="57">
         <v>6</v>
       </c>
-      <c r="L9" s="55" t="s">
-        <v>5</v>
-      </c>
+      <c r="L9" s="55"/>
       <c r="M9" s="102" t="s">
         <v>46</v>
       </c>
@@ -15308,9 +15296,7 @@
       <c r="K10" s="57">
         <v>7</v>
       </c>
-      <c r="L10" s="55" t="s">
-        <v>18</v>
-      </c>
+      <c r="L10" s="55"/>
       <c r="M10" s="102" t="s">
         <v>46</v>
       </c>
@@ -15366,9 +15352,7 @@
       <c r="K11" s="57">
         <v>8</v>
       </c>
-      <c r="L11" s="55" t="s">
-        <v>6</v>
-      </c>
+      <c r="L11" s="55"/>
       <c r="M11" s="102" t="s">
         <v>46</v>
       </c>
@@ -15424,9 +15408,7 @@
       <c r="K12" s="57">
         <v>9</v>
       </c>
-      <c r="L12" s="55" t="s">
-        <v>19</v>
-      </c>
+      <c r="L12" s="55"/>
       <c r="M12" s="102" t="s">
         <v>46</v>
       </c>
@@ -15482,9 +15464,7 @@
       <c r="K13" s="57">
         <v>10</v>
       </c>
-      <c r="L13" s="55" t="s">
-        <v>20</v>
-      </c>
+      <c r="L13" s="55"/>
       <c r="M13" s="102" t="s">
         <v>46</v>
       </c>
@@ -15540,9 +15520,7 @@
       <c r="K14" s="57">
         <v>11</v>
       </c>
-      <c r="L14" s="55" t="s">
-        <v>21</v>
-      </c>
+      <c r="L14" s="55"/>
       <c r="M14" s="102" t="s">
         <v>46</v>
       </c>
@@ -15598,9 +15576,7 @@
       <c r="K15" s="57">
         <v>12</v>
       </c>
-      <c r="L15" s="55" t="s">
-        <v>22</v>
-      </c>
+      <c r="L15" s="55"/>
       <c r="M15" s="102" t="s">
         <v>46</v>
       </c>
@@ -15656,9 +15632,7 @@
       <c r="K16" s="57">
         <v>13</v>
       </c>
-      <c r="L16" s="61">
-        <v>37</v>
-      </c>
+      <c r="L16" s="61"/>
       <c r="M16" s="102" t="s">
         <v>46</v>
       </c>
@@ -15829,8 +15803,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16042,9 +16016,7 @@
       <c r="K4" s="31">
         <v>1</v>
       </c>
-      <c r="L4" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="L4" s="28"/>
       <c r="M4" s="103" t="s">
         <v>46</v>
       </c>
@@ -16102,9 +16074,7 @@
       <c r="K5" s="31">
         <v>2</v>
       </c>
-      <c r="L5" s="28" t="s">
-        <v>3</v>
-      </c>
+      <c r="L5" s="28"/>
       <c r="M5" s="102" t="s">
         <v>46</v>
       </c>
@@ -16162,9 +16132,7 @@
       <c r="K6" s="31">
         <v>3</v>
       </c>
-      <c r="L6" s="28" t="s">
-        <v>4</v>
-      </c>
+      <c r="L6" s="28"/>
       <c r="M6" s="102" t="s">
         <v>46</v>
       </c>
@@ -16222,9 +16190,7 @@
       <c r="K7" s="31">
         <v>4</v>
       </c>
-      <c r="L7" s="28" t="s">
-        <v>16</v>
-      </c>
+      <c r="L7" s="28"/>
       <c r="M7" s="102" t="s">
         <v>46</v>
       </c>
@@ -16282,9 +16248,7 @@
       <c r="K8" s="31">
         <v>5</v>
       </c>
-      <c r="L8" s="28" t="s">
-        <v>17</v>
-      </c>
+      <c r="L8" s="28"/>
       <c r="M8" s="102" t="s">
         <v>46</v>
       </c>
@@ -16342,9 +16306,7 @@
       <c r="K9" s="31">
         <v>6</v>
       </c>
-      <c r="L9" s="28" t="s">
-        <v>5</v>
-      </c>
+      <c r="L9" s="28"/>
       <c r="M9" s="102" t="s">
         <v>46</v>
       </c>
@@ -16402,9 +16364,7 @@
       <c r="K10" s="31">
         <v>7</v>
       </c>
-      <c r="L10" s="28" t="s">
-        <v>18</v>
-      </c>
+      <c r="L10" s="28"/>
       <c r="M10" s="102" t="s">
         <v>46</v>
       </c>
@@ -16462,9 +16422,7 @@
       <c r="K11" s="31">
         <v>8</v>
       </c>
-      <c r="L11" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="L11" s="28"/>
       <c r="M11" s="102" t="s">
         <v>46</v>
       </c>
@@ -16522,9 +16480,7 @@
       <c r="K12" s="31">
         <v>9</v>
       </c>
-      <c r="L12" s="28" t="s">
-        <v>19</v>
-      </c>
+      <c r="L12" s="28"/>
       <c r="M12" s="102" t="s">
         <v>46</v>
       </c>
@@ -16582,9 +16538,7 @@
       <c r="K13" s="31">
         <v>10</v>
       </c>
-      <c r="L13" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="L13" s="28"/>
       <c r="M13" s="102" t="s">
         <v>46</v>
       </c>
@@ -16642,9 +16596,7 @@
       <c r="K14" s="31">
         <v>11</v>
       </c>
-      <c r="L14" s="28" t="s">
-        <v>21</v>
-      </c>
+      <c r="L14" s="28"/>
       <c r="M14" s="102" t="s">
         <v>46</v>
       </c>
@@ -16702,9 +16654,7 @@
       <c r="K15" s="31">
         <v>12</v>
       </c>
-      <c r="L15" s="28" t="s">
-        <v>22</v>
-      </c>
+      <c r="L15" s="28"/>
       <c r="M15" s="102" t="s">
         <v>46</v>
       </c>
@@ -16762,9 +16712,7 @@
       <c r="K16" s="31">
         <v>13</v>
       </c>
-      <c r="L16" s="28">
-        <v>37</v>
-      </c>
+      <c r="L16" s="28"/>
       <c r="M16" s="102" t="s">
         <v>46</v>
       </c>
@@ -16938,8 +16886,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17152,9 +17100,7 @@
       <c r="K4" s="31">
         <v>1</v>
       </c>
-      <c r="L4" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="L4" s="28"/>
       <c r="M4" s="32" t="s">
         <v>46</v>
       </c>
@@ -17186,9 +17132,7 @@
       <c r="K5" s="31">
         <v>2</v>
       </c>
-      <c r="L5" s="28" t="s">
-        <v>3</v>
-      </c>
+      <c r="L5" s="28"/>
       <c r="M5" s="35" t="s">
         <v>46</v>
       </c>
@@ -17220,9 +17164,7 @@
       <c r="K6" s="31">
         <v>3</v>
       </c>
-      <c r="L6" s="28" t="s">
-        <v>4</v>
-      </c>
+      <c r="L6" s="28"/>
       <c r="M6" s="35" t="s">
         <v>46</v>
       </c>
@@ -17256,9 +17198,7 @@
       <c r="K7" s="31">
         <v>4</v>
       </c>
-      <c r="L7" s="28" t="s">
-        <v>16</v>
-      </c>
+      <c r="L7" s="28"/>
       <c r="M7" s="35" t="s">
         <v>46</v>
       </c>
@@ -17294,9 +17234,7 @@
       <c r="K8" s="31">
         <v>5</v>
       </c>
-      <c r="L8" s="28" t="s">
-        <v>17</v>
-      </c>
+      <c r="L8" s="28"/>
       <c r="M8" s="35" t="s">
         <v>46</v>
       </c>
@@ -17334,9 +17272,7 @@
       <c r="K9" s="31">
         <v>6</v>
       </c>
-      <c r="L9" s="28" t="s">
-        <v>5</v>
-      </c>
+      <c r="L9" s="28"/>
       <c r="M9" s="35" t="s">
         <v>46</v>
       </c>
@@ -17376,9 +17312,7 @@
       <c r="K10" s="31">
         <v>7</v>
       </c>
-      <c r="L10" s="28" t="s">
-        <v>18</v>
-      </c>
+      <c r="L10" s="28"/>
       <c r="M10" s="35" t="s">
         <v>46</v>
       </c>
@@ -17420,9 +17354,7 @@
       <c r="K11" s="31">
         <v>8</v>
       </c>
-      <c r="L11" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="L11" s="28"/>
       <c r="M11" s="35" t="s">
         <v>46</v>
       </c>
@@ -17466,9 +17398,7 @@
       <c r="K12" s="31">
         <v>9</v>
       </c>
-      <c r="L12" s="28" t="s">
-        <v>19</v>
-      </c>
+      <c r="L12" s="28"/>
       <c r="M12" s="35" t="s">
         <v>46</v>
       </c>
@@ -17514,9 +17444,7 @@
       <c r="K13" s="31">
         <v>10</v>
       </c>
-      <c r="L13" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="L13" s="28"/>
       <c r="M13" s="35" t="s">
         <v>46</v>
       </c>
@@ -17564,9 +17492,7 @@
       <c r="K14" s="31">
         <v>11</v>
       </c>
-      <c r="L14" s="28" t="s">
-        <v>21</v>
-      </c>
+      <c r="L14" s="28"/>
       <c r="M14" s="35" t="s">
         <v>46</v>
       </c>
@@ -17616,9 +17542,7 @@
       <c r="K15" s="31">
         <v>12</v>
       </c>
-      <c r="L15" s="28" t="s">
-        <v>22</v>
-      </c>
+      <c r="L15" s="28"/>
       <c r="M15" s="35" t="s">
         <v>46</v>
       </c>
@@ -17670,9 +17594,7 @@
       <c r="K16" s="31">
         <v>13</v>
       </c>
-      <c r="L16" s="28">
-        <v>37</v>
-      </c>
+      <c r="L16" s="28"/>
       <c r="M16" s="35" t="s">
         <v>46</v>
       </c>
@@ -17840,7 +17762,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB/Template.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Source\dcom\bin\Debug\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4685E32F-6166-47C6-B42C-0154A3A75A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729BDBB2-7691-40C6-BB67-980035449AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13755" yWindow="2100" windowWidth="14685" windowHeight="14490" tabRatio="903" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13095" yWindow="1740" windowWidth="14685" windowHeight="14490" tabRatio="903" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="88">
   <si>
     <t>Sub_function</t>
   </si>
@@ -306,12 +306,15 @@
   <si>
     <t>Vehicle Speed</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -359,6 +362,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="10">
@@ -701,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -906,6 +915,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9094,7 +9108,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table12242" displayName="Table12242" ref="K2:Z17" headerRowDxfId="570" dataDxfId="569" totalsRowDxfId="568">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table12242" displayName="Table12242" ref="K2:Z18" headerRowDxfId="570" dataDxfId="569" totalsRowDxfId="568">
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name=" " totalsRowLabel="Total" dataDxfId="567" totalsRowDxfId="566"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-1000-000010000000}" name="Priority2" dataDxfId="565" totalsRowDxfId="564"/>
@@ -9807,8 +9821,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="78" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1279" displayName="Table1279" ref="K2:Z17" headerRowDxfId="694" dataDxfId="693" totalsRowDxfId="692">
-  <autoFilter ref="K2:Z17" xr:uid="{00000000-0009-0000-0100-00004E000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="78" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1279" displayName="Table1279" ref="K2:Z18" headerRowDxfId="694" dataDxfId="693" totalsRowDxfId="692">
+  <autoFilter ref="K2:Z18" xr:uid="{00000000-0009-0000-0100-00004E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -10109,8 +10123,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table1224" displayName="Table1224" ref="K2:Z17" headerRowDxfId="643" dataDxfId="642" totalsRowDxfId="641">
-  <autoFilter ref="K2:Z17" xr:uid="{00000000-0009-0000-0100-000017000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table1224" displayName="Table1224" ref="K2:Z18" headerRowDxfId="643" dataDxfId="642" totalsRowDxfId="641">
+  <autoFilter ref="K2:Z18" xr:uid="{00000000-0009-0000-0100-000017000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
@@ -10415,8 +10429,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:B62"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10742,36 +10756,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -11757,36 +11771,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
       <c r="D1" s="94"/>
       <c r="E1" s="64"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109" t="s">
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
       <c r="Y1" s="65"/>
       <c r="Z1" s="65"/>
     </row>
@@ -12788,36 +12802,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -13810,36 +13824,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -14783,8 +14797,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14815,36 +14829,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -15731,7 +15745,9 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="63"/>
+      <c r="L17" s="63" t="s">
+        <v>87</v>
+      </c>
       <c r="M17" s="59"/>
       <c r="N17" s="59"/>
       <c r="O17" s="59"/>
@@ -15747,6 +15763,25 @@
       <c r="Y17" s="63"/>
       <c r="Z17" s="58"/>
     </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K18" s="63"/>
+      <c r="L18" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="109"/>
+    </row>
     <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
@@ -15785,9 +15820,7 @@
       <c r="A103" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B103" s="47" t="s">
-        <v>26</v>
-      </c>
+      <c r="B103" s="47"/>
       <c r="C103" s="2" t="s">
         <v>52</v>
       </c>
@@ -15856,8 +15889,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15884,36 +15917,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -16821,7 +16854,9 @@
       <c r="I17" s="21"/>
       <c r="J17" s="39"/>
       <c r="K17" s="41"/>
-      <c r="L17" s="37"/>
+      <c r="L17" s="37" t="s">
+        <v>87</v>
+      </c>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -16837,6 +16872,26 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K18" s="37"/>
+      <c r="L18" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="39"/>
+    </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I25" s="2" t="s">
         <v>14</v>
@@ -16876,9 +16931,7 @@
       <c r="A103" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B103" s="47" t="s">
-        <v>26</v>
-      </c>
+      <c r="B103" s="47"/>
       <c r="C103" s="2" t="s">
         <v>52</v>
       </c>
@@ -16946,8 +16999,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16975,36 +17028,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -17706,7 +17759,9 @@
       <c r="I17" s="21"/>
       <c r="J17" s="39"/>
       <c r="K17" s="41"/>
-      <c r="L17" s="37"/>
+      <c r="L17" s="37" t="s">
+        <v>87</v>
+      </c>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -17722,6 +17777,26 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K18" s="37"/>
+      <c r="L18" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="39"/>
+    </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
@@ -17759,9 +17834,7 @@
       <c r="A103" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B103" s="47" t="s">
-        <v>26</v>
-      </c>
+      <c r="B103" s="47"/>
       <c r="C103" s="2" t="s">
         <v>52</v>
       </c>
@@ -17858,36 +17931,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -18839,36 +18912,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="73"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="74"/>
       <c r="Z1" s="75"/>
     </row>
@@ -19958,7 +20031,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
@@ -19987,36 +20060,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -20987,36 +21060,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -21977,36 +22050,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB/Template.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14484413-0E7C-4C11-8B99-23939C675BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA19A960-E5D7-4456-A1B4-245368EB4CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="1245" windowWidth="21600" windowHeight="13185" tabRatio="903" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="903" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="163">
   <si>
     <t>NRC</t>
   </si>
@@ -529,6 +529,12 @@
   </si>
   <si>
     <t>// Stop DTC Setting</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>SID Support</t>
   </si>
 </sst>
 </file>
@@ -1768,14 +1774,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -2235,14 +2240,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -2702,14 +2706,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -2728,7 +2731,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
@@ -4090,14 +4093,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4543,17 +4545,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -5036,35 +5034,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F1:I1"/>
@@ -5081,10 +5057,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5109,10 +5085,11 @@
     <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
     <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="28" max="28" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -5142,8 +5119,12 @@
         <v>68</v>
       </c>
       <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB1" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC1" s="29"/>
+    </row>
+    <row r="2" spans="1:29" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>76</v>
       </c>
@@ -5197,8 +5178,14 @@
       <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>77</v>
       </c>
@@ -5231,8 +5218,12 @@
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB3" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC3" s="7"/>
+    </row>
+    <row r="4" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>78</v>
       </c>
@@ -5265,8 +5256,12 @@
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="7"/>
+    </row>
+    <row r="5" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>79</v>
       </c>
@@ -5292,8 +5287,10 @@
       <c r="R5" s="7"/>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="7"/>
+    </row>
+    <row r="6" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>80</v>
       </c>
@@ -5320,7 +5317,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>81</v>
       </c>
@@ -5347,7 +5344,7 @@
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>82</v>
       </c>
@@ -5374,7 +5371,7 @@
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>83</v>
       </c>
@@ -5401,7 +5398,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>84</v>
       </c>
@@ -5428,7 +5425,7 @@
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>85</v>
       </c>
@@ -5455,7 +5452,7 @@
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>86</v>
       </c>
@@ -5482,7 +5479,7 @@
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>87</v>
       </c>
@@ -5509,7 +5506,7 @@
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>88</v>
       </c>
@@ -5536,7 +5533,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>89</v>
       </c>
@@ -5563,7 +5560,7 @@
       <c r="T15" s="9"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>90</v>
       </c>
@@ -5918,7 +5915,8 @@
       <c r="J37" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
@@ -5934,10 +5932,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:AC111"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:U5"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5962,10 +5960,11 @@
     <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
     <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="28" max="28" width="14.28515625" style="6" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -5995,8 +5994,12 @@
         <v>68</v>
       </c>
       <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB1" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC1" s="29"/>
+    </row>
+    <row r="2" spans="1:29" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>76</v>
       </c>
@@ -6050,8 +6053,14 @@
       <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -6080,8 +6089,12 @@
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB3" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC3" s="7"/>
+    </row>
+    <row r="4" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -6110,8 +6123,12 @@
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="7"/>
+    </row>
+    <row r="5" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -6133,8 +6150,10 @@
       <c r="R5" s="7"/>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="7"/>
+    </row>
+    <row r="6" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -6157,7 +6176,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -6180,7 +6199,7 @@
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -6203,7 +6222,7 @@
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -6226,7 +6245,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -6249,7 +6268,7 @@
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -6272,7 +6291,7 @@
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -6295,7 +6314,7 @@
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -6318,7 +6337,7 @@
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -6341,7 +6360,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -6364,7 +6383,7 @@
       <c r="T15" s="9"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -6639,7 +6658,8 @@
     <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
@@ -7111,14 +7131,13 @@
       <c r="U17" s="7"/>
     </row>
     <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB/Template.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA19A960-E5D7-4456-A1B4-245368EB4CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6384827-BD09-4934-A086-93DAB4CE00AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="903" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="903" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="164">
   <si>
     <t>NRC</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>SID Support</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1345,10 +1348,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T4"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1365,19 +1368,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -1400,12 +1403,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
@@ -1439,19 +1443,22 @@
         <v>74</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1474,17 +1481,18 @@
         <v>67</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="E4" s="2"/>
@@ -1503,17 +1511,18 @@
         <v>29</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -1528,12 +1537,13 @@
       <c r="L5" s="7"/>
       <c r="N5" s="9"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -1548,12 +1558,13 @@
       <c r="L6" s="7"/>
       <c r="N6" s="9"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -1568,12 +1579,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -1588,12 +1600,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -1608,12 +1621,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -1628,12 +1642,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -1648,12 +1663,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -1668,12 +1684,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -1688,12 +1705,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -1708,12 +1726,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -1728,12 +1747,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -1748,12 +1768,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -1768,12 +1789,13 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1786,8 +1808,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1797,10 +1819,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T5"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1817,19 +1839,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -1852,12 +1874,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
@@ -1891,19 +1914,22 @@
         <v>74</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1929,17 +1955,18 @@
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1965,17 +1992,18 @@
         <v>67</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -1992,12 +2020,13 @@
         <v>67</v>
       </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -2014,12 +2043,13 @@
         <v>67</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -2034,12 +2064,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -2054,12 +2085,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -2074,12 +2106,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -2094,12 +2127,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -2114,12 +2148,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -2134,12 +2169,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -2154,12 +2190,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -2174,12 +2211,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -2194,12 +2232,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -2214,12 +2253,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -2234,12 +2274,13 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2252,8 +2293,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2263,10 +2304,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T4"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2283,19 +2324,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -2318,12 +2359,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
@@ -2357,19 +2399,22 @@
         <v>74</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2395,17 +2440,18 @@
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -2431,17 +2477,18 @@
         <v>67</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -2458,12 +2505,13 @@
         <v>67</v>
       </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -2480,12 +2528,13 @@
         <v>67</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -2500,12 +2549,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -2520,12 +2570,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -2540,12 +2591,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -2560,12 +2612,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -2580,12 +2633,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -2600,12 +2654,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -2620,12 +2675,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -2640,12 +2696,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -2660,12 +2717,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -2680,12 +2738,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -2700,12 +2759,13 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2718,8 +2778,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2729,10 +2789,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2749,19 +2809,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -2784,12 +2844,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
@@ -2823,19 +2884,22 @@
         <v>74</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2861,17 +2925,18 @@
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -2897,17 +2962,18 @@
         <v>67</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -2924,12 +2990,13 @@
         <v>67</v>
       </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -2946,12 +3013,13 @@
         <v>67</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -2966,12 +3034,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -2986,12 +3055,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -3006,12 +3076,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -3026,12 +3097,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -3046,12 +3118,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -3066,12 +3139,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -3086,12 +3160,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -3106,12 +3181,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -3126,12 +3202,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -3146,12 +3223,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -3166,12 +3244,13 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3184,8 +3263,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3195,10 +3274,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T4"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3215,19 +3294,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -3250,12 +3329,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
@@ -3289,19 +3369,22 @@
         <v>74</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -3324,17 +3407,18 @@
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -3357,17 +3441,18 @@
         <v>67</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -3390,12 +3475,13 @@
         <v>67</v>
       </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -3414,12 +3500,13 @@
         <v>67</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -3436,12 +3523,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -3456,12 +3544,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -3476,12 +3565,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -3496,12 +3586,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -3516,12 +3607,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -3536,12 +3628,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -3556,12 +3649,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -3576,12 +3670,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -3596,12 +3691,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -3616,12 +3712,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -3636,18 +3733,19 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N1:R1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3658,10 +3756,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T4"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3678,19 +3776,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -3713,12 +3811,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
@@ -3752,19 +3851,22 @@
         <v>74</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -3785,17 +3887,18 @@
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -3816,17 +3919,18 @@
         <v>67</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -3845,12 +3949,13 @@
         <v>67</v>
       </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="7"/>
       <c r="E6" s="2"/>
@@ -3867,12 +3972,13 @@
         <v>67</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="E7" s="2"/>
@@ -3887,12 +3993,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="E8" s="2"/>
@@ -3907,12 +4014,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="E9" s="3"/>
@@ -3927,12 +4035,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="E10" s="2"/>
@@ -3947,12 +4056,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="E11" s="2"/>
@@ -3967,12 +4077,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="E12" s="2"/>
@@ -3987,12 +4098,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="E13" s="2"/>
@@ -4007,12 +4119,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="E14" s="2"/>
@@ -4027,12 +4140,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="E15" s="2"/>
@@ -4047,12 +4161,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="E16" s="2"/>
@@ -4067,12 +4182,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="E17" s="4"/>
@@ -4087,12 +4203,13 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4105,8 +4222,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4116,10 +4233,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4136,19 +4253,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -4171,12 +4288,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
@@ -4210,19 +4328,22 @@
         <v>74</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>33</v>
       </c>
@@ -4245,17 +4366,18 @@
         <v>67</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="E4" s="2"/>
@@ -4274,17 +4396,18 @@
         <v>29</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -4299,12 +4422,13 @@
       <c r="L5" s="7"/>
       <c r="N5" s="9"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -4319,12 +4443,13 @@
       <c r="L6" s="7"/>
       <c r="N6" s="9"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -4339,12 +4464,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -4359,12 +4485,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -4379,12 +4506,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -4399,12 +4527,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -4419,12 +4548,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -4439,12 +4569,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -4459,12 +4590,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -4479,12 +4611,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -4499,12 +4632,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -4519,12 +4653,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -4539,12 +4674,13 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4557,8 +4693,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4568,10 +4704,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L6"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4586,19 +4722,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -4623,12 +4759,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
@@ -4664,19 +4801,22 @@
         <v>74</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -4699,17 +4839,18 @@
         <v>67</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -4732,17 +4873,18 @@
         <v>29</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -4761,12 +4903,13 @@
       <c r="L5" s="7"/>
       <c r="N5" s="9"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -4785,12 +4928,13 @@
       <c r="L6" s="7"/>
       <c r="N6" s="9"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -4809,12 +4953,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -4830,12 +4975,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -4852,12 +4998,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -4874,12 +5021,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -4896,12 +5044,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -4918,12 +5067,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -4940,12 +5090,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -4962,12 +5113,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -4984,12 +5136,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -5006,12 +5159,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -5028,12 +5182,13 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5045,8 +5200,8 @@
   <mergeCells count="5">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5057,10 +5212,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5076,20 +5231,20 @@
     <col min="12" max="12" width="14.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="6" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="28" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="6"/>
+    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
+    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
+    <col min="29" max="29" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -5115,16 +5270,17 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="29"/>
+      <c r="U1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="29"/>
-      <c r="AB1" s="28" t="s">
+      <c r="V1" s="29"/>
+      <c r="AC1" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="AC1" s="29"/>
-    </row>
-    <row r="2" spans="1:29" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD1" s="29"/>
+    </row>
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>76</v>
       </c>
@@ -5167,25 +5323,28 @@
         <v>74</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>77</v>
       </c>
@@ -5209,21 +5368,22 @@
         <v>67</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="14"/>
       <c r="R3" s="7"/>
-      <c r="T3" s="9" t="s">
+      <c r="S3" s="7"/>
+      <c r="U3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="7"/>
+      <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AC3" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AC3" s="7"/>
-    </row>
-    <row r="4" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD3" s="7"/>
+    </row>
+    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>78</v>
       </c>
@@ -5247,21 +5407,22 @@
         <v>29</v>
       </c>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="7"/>
-      <c r="T4" s="9" t="s">
+      <c r="S4" s="7"/>
+      <c r="U4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7"/>
+      <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="7"/>
-    </row>
-    <row r="5" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD4" s="7"/>
+    </row>
+    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>79</v>
       </c>
@@ -5283,14 +5444,15 @@
       <c r="M5" s="7"/>
       <c r="O5" s="9"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="7"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="7"/>
-    </row>
-    <row r="6" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="7"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="7"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="7"/>
+    </row>
+    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>80</v>
       </c>
@@ -5312,12 +5474,13 @@
       <c r="M6" s="7"/>
       <c r="O6" s="9"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="7"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>81</v>
       </c>
@@ -5339,12 +5502,13 @@
       <c r="M7" s="7"/>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="7"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>82</v>
       </c>
@@ -5366,12 +5530,13 @@
       <c r="M8" s="7"/>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="7"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>83</v>
       </c>
@@ -5393,12 +5558,13 @@
       <c r="M9" s="7"/>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="7"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>84</v>
       </c>
@@ -5420,12 +5586,13 @@
       <c r="M10" s="7"/>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="7"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>85</v>
       </c>
@@ -5447,12 +5614,13 @@
       <c r="M11" s="7"/>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="7"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>86</v>
       </c>
@@ -5474,12 +5642,13 @@
       <c r="M12" s="7"/>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="7"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>87</v>
       </c>
@@ -5501,12 +5670,13 @@
       <c r="M13" s="7"/>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="7"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>88</v>
       </c>
@@ -5528,12 +5698,13 @@
       <c r="M14" s="7"/>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="7"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>89</v>
       </c>
@@ -5555,12 +5726,13 @@
       <c r="M15" s="7"/>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="7"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>90</v>
       </c>
@@ -5582,12 +5754,13 @@
       <c r="M16" s="7"/>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="7"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>91</v>
       </c>
@@ -5609,12 +5782,13 @@
       <c r="M17" s="7"/>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="14"/>
       <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="7"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>92</v>
       </c>
@@ -5629,7 +5803,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>93</v>
       </c>
@@ -5644,7 +5818,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>94</v>
       </c>
@@ -5659,7 +5833,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>95</v>
       </c>
@@ -5674,7 +5848,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>96</v>
       </c>
@@ -5689,7 +5863,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>97</v>
       </c>
@@ -5704,7 +5878,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>98</v>
       </c>
@@ -5719,7 +5893,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>99</v>
       </c>
@@ -5734,7 +5908,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>100</v>
       </c>
@@ -5749,7 +5923,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>101</v>
       </c>
@@ -5764,7 +5938,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>102</v>
       </c>
@@ -5779,7 +5953,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>103</v>
       </c>
@@ -5794,7 +5968,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>104</v>
       </c>
@@ -5809,7 +5983,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>105</v>
       </c>
@@ -5824,7 +5998,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>106</v>
       </c>
@@ -5916,12 +6090,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5932,10 +6106,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AC111"/>
+  <dimension ref="A1:AD111"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5951,20 +6125,20 @@
     <col min="12" max="12" width="14.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="6" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="6" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="6"/>
+    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
+    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="6" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -5990,16 +6164,17 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="29"/>
+      <c r="U1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="29"/>
-      <c r="AB1" s="28" t="s">
+      <c r="V1" s="29"/>
+      <c r="AC1" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="AC1" s="29"/>
-    </row>
-    <row r="2" spans="1:29" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD1" s="29"/>
+    </row>
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>76</v>
       </c>
@@ -6042,25 +6217,28 @@
         <v>74</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -6080,21 +6258,22 @@
         <v>67</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="14"/>
       <c r="R3" s="7"/>
-      <c r="T3" s="9" t="s">
+      <c r="S3" s="7"/>
+      <c r="U3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="7"/>
+      <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AC3" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AC3" s="7"/>
-    </row>
-    <row r="4" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD3" s="7"/>
+    </row>
+    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -6114,21 +6293,22 @@
         <v>29</v>
       </c>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="7"/>
-      <c r="T4" s="9" t="s">
+      <c r="S4" s="7"/>
+      <c r="U4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7"/>
+      <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="7"/>
-    </row>
-    <row r="5" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD4" s="7"/>
+    </row>
+    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -6146,14 +6326,15 @@
       <c r="M5" s="7"/>
       <c r="O5" s="9"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="7"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="7"/>
-    </row>
-    <row r="6" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="7"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="7"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="7"/>
+    </row>
+    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -6171,12 +6352,13 @@
       <c r="M6" s="7"/>
       <c r="O6" s="9"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="7"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -6194,12 +6376,13 @@
       <c r="M7" s="7"/>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="7"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -6217,12 +6400,13 @@
       <c r="M8" s="7"/>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="7"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -6240,12 +6424,13 @@
       <c r="M9" s="7"/>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="7"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -6263,12 +6448,13 @@
       <c r="M10" s="7"/>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="7"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -6286,12 +6472,13 @@
       <c r="M11" s="7"/>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="7"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -6309,12 +6496,13 @@
       <c r="M12" s="7"/>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="7"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -6332,12 +6520,13 @@
       <c r="M13" s="7"/>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="7"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -6355,12 +6544,13 @@
       <c r="M14" s="7"/>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="7"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -6378,12 +6568,13 @@
       <c r="M15" s="7"/>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="7"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -6401,12 +6592,13 @@
       <c r="M16" s="7"/>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="7"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -6424,12 +6616,13 @@
       <c r="M17" s="7"/>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="14"/>
       <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="7"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -6440,7 +6633,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -6451,7 +6644,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -6462,7 +6655,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -6473,7 +6666,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -6484,7 +6677,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -6495,7 +6688,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -6506,7 +6699,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -6517,7 +6710,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6528,7 +6721,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -6539,7 +6732,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -6550,7 +6743,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -6561,7 +6754,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -6572,7 +6765,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -6583,7 +6776,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -6659,12 +6852,12 @@
     <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6674,10 +6867,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:U4"/>
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6695,19 +6888,19 @@
     <col min="12" max="12" width="26.28515625" style="6" customWidth="1"/>
     <col min="13" max="13" width="24.140625" style="6" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
+    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -6731,12 +6924,13 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="29"/>
+      <c r="U1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V1" s="29"/>
+    </row>
+    <row r="2" spans="1:23" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
@@ -6773,19 +6967,22 @@
         <v>74</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -6809,17 +7006,18 @@
         <v>29</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="14"/>
       <c r="R3" s="7"/>
-      <c r="T3" s="9" t="s">
+      <c r="S3" s="7"/>
+      <c r="U3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="7"/>
+      <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -6843,17 +7041,18 @@
         <v>67</v>
       </c>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="7"/>
-      <c r="T4" s="9" t="s">
+      <c r="S4" s="7"/>
+      <c r="U4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7"/>
+      <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="23"/>
       <c r="E5" s="2"/>
@@ -6871,12 +7070,13 @@
         <v>67</v>
       </c>
       <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="7"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="7"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="23"/>
       <c r="E6" s="2"/>
@@ -6894,12 +7094,13 @@
         <v>67</v>
       </c>
       <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="7"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="23"/>
       <c r="E7" s="2"/>
@@ -6915,12 +7116,13 @@
       <c r="M7" s="7"/>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="7"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="23"/>
       <c r="E8" s="2"/>
@@ -6936,12 +7138,13 @@
       <c r="M8" s="7"/>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="7"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="23"/>
       <c r="E9" s="3"/>
@@ -6957,12 +7160,13 @@
       <c r="M9" s="7"/>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="7"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="23"/>
       <c r="E10" s="2"/>
@@ -6978,12 +7182,13 @@
       <c r="M10" s="7"/>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="7"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="23"/>
       <c r="E11" s="2"/>
@@ -6999,12 +7204,13 @@
       <c r="M11" s="7"/>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="7"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="23"/>
       <c r="E12" s="2"/>
@@ -7020,12 +7226,13 @@
       <c r="M12" s="7"/>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="7"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="23"/>
       <c r="E13" s="2"/>
@@ -7041,12 +7248,13 @@
       <c r="M13" s="7"/>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="7"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="23"/>
       <c r="E14" s="2"/>
@@ -7062,12 +7270,13 @@
       <c r="M14" s="7"/>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="7"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="23"/>
       <c r="E15" s="2"/>
@@ -7083,12 +7292,13 @@
       <c r="M15" s="7"/>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="7"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="23"/>
       <c r="E16" s="2"/>
@@ -7104,12 +7314,13 @@
       <c r="M16" s="7"/>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="7"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="23"/>
       <c r="E17" s="4"/>
@@ -7125,12 +7336,13 @@
       <c r="M17" s="7"/>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="14"/>
       <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="S17" s="7"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7142,8 +7354,8 @@
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7154,10 +7366,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T4"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7174,19 +7386,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -7211,12 +7423,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>155</v>
       </c>
@@ -7256,19 +7469,22 @@
         <v>74</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -7295,17 +7511,18 @@
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -7332,17 +7549,18 @@
         <v>67</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -7367,12 +7585,13 @@
         <v>67</v>
       </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
@@ -7395,12 +7614,13 @@
         <v>67</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="24"/>
       <c r="C7" s="9"/>
@@ -7419,12 +7639,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="24"/>
       <c r="C8" s="9"/>
@@ -7443,12 +7664,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="24"/>
       <c r="C9" s="9"/>
@@ -7467,12 +7689,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="24"/>
       <c r="C10" s="9"/>
@@ -7489,12 +7712,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="24"/>
       <c r="C11" s="9"/>
@@ -7511,12 +7735,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="24"/>
       <c r="C12" s="9"/>
@@ -7533,12 +7758,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="24"/>
       <c r="C13" s="9"/>
@@ -7555,12 +7781,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="24"/>
       <c r="C14" s="9"/>
@@ -7577,12 +7804,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="24"/>
       <c r="C15" s="9"/>
@@ -7599,12 +7827,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="24"/>
       <c r="C16" s="9"/>
@@ -7621,12 +7850,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="24"/>
       <c r="C17" s="9"/>
@@ -7643,12 +7873,13 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7660,8 +7891,8 @@
   <mergeCells count="5">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB/Template.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6384827-BD09-4934-A086-93DAB4CE00AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EEC820-C167-410B-A2A4-921AA3ADA502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="903" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="540" windowWidth="24855" windowHeight="15315" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="168">
   <si>
     <t>NRC</t>
   </si>
@@ -538,6 +538,18 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Create_Fault</t>
+  </si>
+  <si>
+    <t>Current_Session</t>
+  </si>
+  <si>
+    <t>Invalid_Counter</t>
+  </si>
+  <si>
+    <t>Current_Voltage</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1075,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1088,22 +1100,30 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="19" t="s">
+        <v>164</v>
+      </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
+      <c r="A4" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
     </row>
@@ -1152,17 +1172,23 @@
       <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="19" t="s">
+        <v>165</v>
+      </c>
       <c r="B21" s="22"/>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+      <c r="A22" s="19" t="s">
+        <v>166</v>
+      </c>
       <c r="B22" s="22"/>
       <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="B23" s="22"/>
       <c r="C23" s="20"/>
     </row>
@@ -2791,7 +2817,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
